--- a/medicine/Premiers secours et secourisme/Chef_de_poste_(secourisme)/Chef_de_poste_(secourisme).xlsx
+++ b/medicine/Premiers secours et secourisme/Chef_de_poste_(secourisme)/Chef_de_poste_(secourisme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En secourisme, en France, un chef de poste est un membre d'une association agréée de sécurité civile (AASC) désigné[pas clair] par son autorité d'emploi pour assurer le commandement d'un Dispositif Prévisionnel de Secours de Petite Envergure (DPS-PE) ou d'un poste de secours au sein d'un dispositif prévisionnel de secours de moyenne envergure (DPS-ME) ou d'un dispositif prévisionnel de secours de grande envergure (DPS-GE). 
 Un chef de poste peut diriger jusqu'à 12 intervenants secouristes.
@@ -512,7 +524,9 @@
           <t>Formation et prérequis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chef de poste de poste doit obligatoirement être majeur
 Il doit être titulaire du certificat de compétences d'équipier secouriste - PSE 2
@@ -545,7 +559,9 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le chef de poste a pour mission de diriger l'ensemble des moyens humains et matériels mis en œuvre pour réaliser un DPS-PE, c'est-à-dire l'ensemble des moyens humains et matériel de premiers secours à personnes prépositionnés.
 En fonction du Ratio d'Intervenant Secouriste (RIS) établit à partir de la grille d'évaluation des risques liés à l'évènement (définie dans le RNMSC), le chef de poste peut être amené à diriger jusqu'à 12 intervenants secouristes. Un stagiaire peut être ajouté. Il est alors placé sous la responsabilité directe du chef de poste. Le chef de poste ne peut prendre la responsabilité que d'un seul mineur.
